--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Prok1-Prokr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Prok1-Prokr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1559113333333333</v>
+        <v>0.412312</v>
       </c>
       <c r="H2">
-        <v>0.467734</v>
+        <v>1.236936</v>
       </c>
       <c r="I2">
-        <v>0.581349448025395</v>
+        <v>0.7859709944540746</v>
       </c>
       <c r="J2">
-        <v>0.581349448025395</v>
+        <v>0.7859709944540746</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1783873333333333</v>
+        <v>3.661215333333333</v>
       </c>
       <c r="N2">
-        <v>0.535162</v>
+        <v>10.983646</v>
       </c>
       <c r="O2">
-        <v>0.04392329522301068</v>
+        <v>0.9813286907532969</v>
       </c>
       <c r="P2">
-        <v>0.04392329522301068</v>
+        <v>0.9813286907532969</v>
       </c>
       <c r="Q2">
-        <v>0.02781260698977778</v>
+        <v>1.509563016517333</v>
       </c>
       <c r="R2">
-        <v>0.2503134629080001</v>
+        <v>13.586067148656</v>
       </c>
       <c r="S2">
-        <v>0.02553478343335373</v>
+        <v>0.7712958869576838</v>
       </c>
       <c r="T2">
-        <v>0.02553478343335373</v>
+        <v>0.7712958869576838</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,51 +596,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1559113333333333</v>
+        <v>0.412312</v>
       </c>
       <c r="H3">
-        <v>0.467734</v>
+        <v>1.236936</v>
       </c>
       <c r="I3">
-        <v>0.581349448025395</v>
+        <v>0.7859709944540746</v>
       </c>
       <c r="J3">
-        <v>0.581349448025395</v>
+        <v>0.7859709944540746</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>3.661215333333333</v>
+        <v>0.06966033333333334</v>
       </c>
       <c r="N3">
-        <v>10.983646</v>
+        <v>0.208981</v>
       </c>
       <c r="O3">
-        <v>0.9014801609289156</v>
+        <v>0.01867130924670321</v>
       </c>
       <c r="P3">
-        <v>0.9014801609289156</v>
+        <v>0.01867130924670321</v>
       </c>
       <c r="Q3">
-        <v>0.5708249642404445</v>
+        <v>0.02872179135733334</v>
       </c>
       <c r="R3">
-        <v>5.137424678164001</v>
+        <v>0.258496122216</v>
       </c>
       <c r="S3">
-        <v>0.5240749939618693</v>
+        <v>0.01467510749639088</v>
       </c>
       <c r="T3">
-        <v>0.5240749939618693</v>
+        <v>0.01467510749639088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -649,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,46 +658,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1559113333333333</v>
+        <v>0.1122773333333333</v>
       </c>
       <c r="H4">
-        <v>0.467734</v>
+        <v>0.336832</v>
       </c>
       <c r="I4">
-        <v>0.581349448025395</v>
+        <v>0.2140290055459255</v>
       </c>
       <c r="J4">
-        <v>0.581349448025395</v>
+        <v>0.2140290055459255</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.221735</v>
+        <v>3.661215333333333</v>
       </c>
       <c r="N4">
-        <v>0.6652049999999999</v>
+        <v>10.983646</v>
       </c>
       <c r="O4">
-        <v>0.0545965438480737</v>
+        <v>0.9813286907532969</v>
       </c>
       <c r="P4">
-        <v>0.05459654384807369</v>
+        <v>0.9813286907532969</v>
       </c>
       <c r="Q4">
-        <v>0.03457099949666666</v>
+        <v>0.4110714943857778</v>
       </c>
       <c r="R4">
-        <v>0.31113899547</v>
+        <v>3.699643449472001</v>
       </c>
       <c r="S4">
-        <v>0.03173967063017192</v>
+        <v>0.2100328037956131</v>
       </c>
       <c r="T4">
-        <v>0.03173967063017192</v>
+        <v>0.2100328037956131</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,10 +726,10 @@
         <v>0.336832</v>
       </c>
       <c r="I5">
-        <v>0.4186505519746049</v>
+        <v>0.2140290055459255</v>
       </c>
       <c r="J5">
-        <v>0.4186505519746049</v>
+        <v>0.2140290055459255</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,152 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1783873333333333</v>
+        <v>0.06966033333333334</v>
       </c>
       <c r="N5">
-        <v>0.535162</v>
+        <v>0.208981</v>
       </c>
       <c r="O5">
-        <v>0.04392329522301068</v>
+        <v>0.01867130924670321</v>
       </c>
       <c r="P5">
-        <v>0.04392329522301068</v>
+        <v>0.01867130924670321</v>
       </c>
       <c r="Q5">
-        <v>0.02002885408711111</v>
+        <v>0.007821276465777779</v>
       </c>
       <c r="R5">
-        <v>0.180259686784</v>
+        <v>0.070391488192</v>
       </c>
       <c r="S5">
-        <v>0.01838851178965695</v>
+        <v>0.003996201750312331</v>
       </c>
       <c r="T5">
-        <v>0.01838851178965695</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.1122773333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.336832</v>
-      </c>
-      <c r="I6">
-        <v>0.4186505519746049</v>
-      </c>
-      <c r="J6">
-        <v>0.4186505519746049</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>3.661215333333333</v>
-      </c>
-      <c r="N6">
-        <v>10.983646</v>
-      </c>
-      <c r="O6">
-        <v>0.9014801609289156</v>
-      </c>
-      <c r="P6">
-        <v>0.9014801609289156</v>
-      </c>
-      <c r="Q6">
-        <v>0.4110714943857778</v>
-      </c>
-      <c r="R6">
-        <v>3.699643449472001</v>
-      </c>
-      <c r="S6">
-        <v>0.3774051669670462</v>
-      </c>
-      <c r="T6">
-        <v>0.3774051669670462</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.1122773333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.336832</v>
-      </c>
-      <c r="I7">
-        <v>0.4186505519746049</v>
-      </c>
-      <c r="J7">
-        <v>0.4186505519746049</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.221735</v>
-      </c>
-      <c r="N7">
-        <v>0.6652049999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.0545965438480737</v>
-      </c>
-      <c r="P7">
-        <v>0.05459654384807369</v>
-      </c>
-      <c r="Q7">
-        <v>0.02489581450666667</v>
-      </c>
-      <c r="R7">
-        <v>0.22406233056</v>
-      </c>
-      <c r="S7">
-        <v>0.02285687321790178</v>
-      </c>
-      <c r="T7">
-        <v>0.02285687321790177</v>
+        <v>0.003996201750312331</v>
       </c>
     </row>
   </sheetData>
